--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF012_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF012_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF012_時間休暇申請\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="時間休暇申請" sheetId="29" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
@@ -82,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -483,7 +480,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="2"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="4"/>
@@ -529,7 +526,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -548,7 +545,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -602,7 +599,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -642,7 +639,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -682,7 +679,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -720,16 +717,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -745,7 +732,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -783,16 +770,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -808,7 +785,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -846,16 +823,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -887,7 +854,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -906,7 +873,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -960,7 +927,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1000,7 +967,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1040,7 +1007,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1078,16 +1045,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1103,7 +1060,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1141,16 +1098,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1166,7 +1113,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1204,16 +1151,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1245,7 +1182,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1201,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1318,7 +1255,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1358,7 +1295,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1398,7 +1335,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1436,16 +1373,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1461,7 +1388,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1499,16 +1426,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1524,7 +1441,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1562,16 +1479,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1603,7 +1510,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1529,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1676,7 +1583,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1716,7 +1623,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1756,7 +1663,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1794,16 +1701,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1819,7 +1716,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1857,16 +1754,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1882,7 +1769,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1920,16 +1807,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1961,7 +1838,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1857,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2034,7 +1911,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2074,7 +1951,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2114,7 +1991,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2152,16 +2029,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2170,7 +2044,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2208,16 +2082,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2233,7 +2097,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2271,16 +2135,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2295,19 +2149,6 @@
     <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="休暇申請"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2698,9 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
   <cols>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF012_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF012_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF012_時間休暇申請\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CCB212-D449-4250-8F34-D4D08AB69FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27405" windowHeight="14130"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20100" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="時間休暇申請" sheetId="29" r:id="rId1"/>
@@ -69,7 +70,7 @@
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentManualCount="2"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -119,7 +120,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="源ノ角ゴシック JP Normal"/>
+      <name val="源ノ角ゴシック Normal"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -349,6 +350,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +371,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -370,18 +386,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -397,6 +419,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -421,6 +458,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -433,59 +479,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,7 +527,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -545,7 +546,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -588,8 +589,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -599,7 +600,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -639,7 +640,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -679,7 +680,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -717,12 +718,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -732,7 +743,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -770,12 +781,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -785,7 +806,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -823,12 +844,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -854,7 +885,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +904,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -916,8 +947,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -927,7 +958,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -967,7 +998,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1007,7 +1038,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1045,12 +1076,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1060,7 +1101,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1098,12 +1139,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1113,7 +1164,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1151,12 +1202,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1182,7 +1243,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1262,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1244,8 +1305,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1255,7 +1316,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1295,7 +1356,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1335,7 +1396,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1373,12 +1434,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1388,7 +1459,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1426,12 +1497,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1441,7 +1522,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1479,12 +1560,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1510,7 +1601,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1620,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1572,8 +1663,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1583,7 +1674,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1623,7 +1714,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1663,7 +1754,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1701,12 +1792,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1716,7 +1817,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1754,12 +1855,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1769,7 +1880,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1807,12 +1918,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1838,7 +1959,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1978,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1900,8 +2021,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1911,7 +2032,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1951,7 +2072,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1991,7 +2112,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2029,13 +2150,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2044,7 +2168,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2082,12 +2206,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2097,7 +2231,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2135,12 +2269,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2536,12 +2680,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2573,218 +2717,218 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="3.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="90" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="3.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="74.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="42"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -2797,199 +2941,199 @@
     </row>
     <row r="19" spans="1:12" ht="3.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1"/>
     <row r="35" spans="2:11" ht="15" customHeight="1"/>
